--- a/abbsr_files/extracted_df1.xlsx
+++ b/abbsr_files/extracted_df1.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PRODIGY FINANCE CM 2021-1, DAC POOL SUMMARY</t>
+          <t>PRODIGY FINANCE CM 2021-1, DAC</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PRODIGY FINANCE CM 2021-1, DAC POOL SUMMARY</t>
+          <t>POOL SUMMARY</t>
         </is>
       </c>
     </row>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27-Jan-2025</t>
+          <t>25-Feb-2025</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07-Jan-2025</t>
+          <t>07-Feb-2025</t>
         </is>
       </c>
     </row>
